--- a/Graphs/シフト比較.xlsx
+++ b/Graphs/シフト比較.xlsx
@@ -102,10 +102,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6532770360226715E-2"/>
+          <c:x val="7.6016044722414244E-2"/>
           <c:y val="7.3050315519070749E-2"/>
-          <c:w val="0.90882954848035302"/>
-          <c:h val="0.79305388954040312"/>
+          <c:w val="0.89934619268265226"/>
+          <c:h val="0.79051691487508602"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3066,11 +3066,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="513058112"/>
-        <c:axId val="513055368"/>
+        <c:axId val="1024778216"/>
+        <c:axId val="1024777040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="513058112"/>
+        <c:axId val="1024778216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="480"/>
@@ -3094,7 +3094,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3107,17 +3107,24 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>x</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
                   <a:t>座標</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47669596849000806"/>
+              <c:y val="0.92641561899221891"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3131,7 +3138,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3148,16 +3155,13 @@
           </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3168,7 +3172,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3183,12 +3187,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513055368"/>
+        <c:crossAx val="1024777040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="513055368"/>
+        <c:axId val="1024777040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,16 +3270,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3285,7 +3287,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3300,9 +3302,10 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513058112"/>
+        <c:crossAx val="1024778216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3318,10 +3321,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74690821256038664"/>
-          <c:y val="0.25815602836879431"/>
-          <c:w val="0.1400774278215223"/>
-          <c:h val="8.6269477292643754E-2"/>
+          <c:x val="0.67459789720572649"/>
+          <c:y val="0.14653012939651713"/>
+          <c:w val="0.21238769133006657"/>
+          <c:h val="0.22580187646523936"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3337,7 +3340,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3951,13 +3954,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>339173</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>53423</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -4270,7 +4273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
